--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251002_172408.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251002_172408.xlsx
@@ -5267,7 +5267,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
